--- a/biology/Zoologie/Boulengerella/Boulengerella.xlsx
+++ b/biology/Zoologie/Boulengerella/Boulengerella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boulengerella est un genre de poissons téléostéens de la famille des Ctenoluciidae et de l'ordre des Characiformes. Le genre Boulengerella comprend plusieurs espèces de poissons américains qu'on trouve notamment en Amérique du Sud, dans le bassin de l'Amazone, de l'Orénoque et les rivières du Bouclier guyanais. Ce genre a été baptisé en l'honneur de George Albert Boulenger, zoologiste britannique d'origine belge, et à qui l'on doit la dénomination de 1 096 espèces de poissons. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre Boulengerella regroupe des poissons d'eau douce appartenant à la famille des Ctenoluciidae, communément connus sous le nom de brochets d'Amérique du Sud. Ces poissons se caractérisent par un corps allongé et élancé, ressemblant à celui des brochets européens, ce qui explique leur surnom. Leur morphologie est adaptée à une vie de prédateurs efficaces avec une bouche large et terminale équipée de dents tranchantes, conçues pour attraper des proies en mouvement rapide. La taille des Boulengerella peut varier considérablement selon l'espèce, certaines pouvant atteindre jusqu'à un mètre de longueur dans la nature.</t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces proches des Boulengerella incluent d'autres membres de la famille des Ctenoluciidae, tels que les poissons du genre Ctenolucius, avec lequel ils partagent de nombreuses caractéristiques morphologiques et comportementales. Ces genres sont souvent regroupés en raison de leur apparence similaire à celle des brochets, avec des corps allongés et fusiformes, des bouches larges armées de dents acérées, et un comportement de prédateurs embusqués. Les Ctenolucius sont également des habitants des eaux douces d'Amérique du Sud, préférant des habitats variés, des cours d'eau rapides aux zones inondées de la forêt amazonienne. Bien que moins connus dans le hobby de l'aquariophilie par rapport aux Boulengerella, les Ctenolucius partagent avec eux une préférence pour des environnements aquatiques similaires et un régime alimentaire basé principalement sur des poissons plus petits, ce qui souligne leurs stratégies de vie similaires en tant que prédateurs efficaces dans leurs écosystèmes respectifs.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Boulengerella sont réparties à travers les cours d'eau d'Amérique du Sud, avec une présence notable dans le bassin de l'Amazone, le bassin de l'Orénoque, ainsi que dans divers systèmes fluviaux du Guyana et du Suriname. Ces poissons préfèrent les habitats d'eau douce tels que les rivières claires, les lacs, et les zones inondées de la forêt tropicale, où ils peuvent exploiter leur nature de prédateurs embusqués. Les Boulengerella s'adaptent à une variété de conditions environnementales, mais ils tendent à privilégier les eaux avec un courant modéré à faible, souvent en restant à l'affût près de structures submergées comme des racines ou des branches d'arbres, ce qui leur offre des cachettes idéales pour surprendre leurs proies. Cette répartition géographique et cette préférence pour des habitats spécifiques soulignent l'importance de la conservation de ces milieux aquatiques, souvent menacés par la déforestation et les changements dans l'utilisation des terres.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boulengerella sont des prédateurs embusqués, caractérisés par un comportement solitaire et territorial. Dans leur habitat naturel, ils se positionnent souvent de manière stratégique parmi des racines ou près de structures submergées, attendant patiemment le passage de proies. Leur alimentation est principalement composée de poissons plus petits, mais peut également inclure des insectes et d'autres petits animaux aquatiques. Leurs mouvements sont rapides et précis lorsqu'ils attaquent, témoignant de leur efficacité en tant que chasseurs. En aquarium, ils peuvent montrer un comportement similaire, bien qu'ils soient généralement moins actifs en présence d'humains. Il est crucial de respecter leur besoin d'espace et de structures pour se cacher, afin de minimiser le stress et de favoriser un comportement naturel. Leur tendance à la territorialité exige une attention particulière lors de la sélection des espèces cohabitantes pour éviter les conflits. Ces caractéristiques comportementales font des Boulengerella des résidents fascinants mais exigeants pour les aquariums spécialisés.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boulengerella sont des prédateurs carnivores avec une alimentation centrée principalement sur des poissons plus petits, illustrant leur rôle de chasseurs habiles dans leurs écosystèmes naturels. Leur régime peut également s'étendre à une variété d'autres proies aquatiques, y compris des crustacés et des insectes. Cette prédilection pour les proies vivantes souligne l'importance d'une alimentation diversifiée et riche en protéines pour maintenir ces poissons en bonne santé en captivité. En aquarium, il est conseillé d'imiter leur régime naturel en leur offrant des aliments tels que des poissons d'eau douce vivants ou congelés, des crevettes, et parfois des morceaux de viande de poisson, tout en veillant à éviter les aliments trop gros ou trop riches en graisses qui pourraient causer des problèmes de santé. Une telle alimentation assure non seulement leur bien-être physique mais contribue également à la vivacité de leur comportement de prédateur, un aspect fascinant de leur éthologie à observer en captivité.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des Boulengerella en milieu naturel reste relativement méconnue, avec des informations limitées sur leurs comportements de frai spécifiques. Toutefois, il est supposé que, comme beaucoup d'autres poissons prédateurs d'eau douce, ils pourraient pratiquer un frai en eau libre, où les œufs sont dispersés parmi la végétation aquatique ou dans d'autres substrats appropriés sans soins parentaux ultérieurs. Les œufs flottants ou légèrement adhérents seraient alors soumis aux courants d'eau, ce qui contribuerait à leur dispersion. En captivité, la reproduction de ces espèces peut s'avérer difficile en raison de leur taille, de leur comportement territorial et de leurs besoins spécifiques en matière de qualité d'eau et d'environnement. De plus, la stimulation du processus de frai peut nécessiter des changements spécifiques dans les conditions de l'aquarium, tels que l'ajustement de la température, de la photopériode, ou la simulation de la saison des pluies, pour encourager le comportement reproducteur. Néanmoins, les succès de reproduction en aquarium restent rares et principalement le domaine des aquariophiles expérimentés ou des installations spécialisées.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance en captivité des Boulengerella demande une attention particulière en raison de leur grande taille et de leur nature prédatrice. Ces poissons nécessitent un aquarium spacieux, avec un minimum recommandé de plusieurs centaines de litres, pour leur permettre de nager librement et d'exhiber un comportement naturel. L'aquarium doit être équipé de zones de cachette, comme des racines ou des roches, pour simuler leur habitat naturel et offrir des refuges. La qualité de l'eau est cruciale, nécessitant une filtration efficace pour maintenir une eau propre et bien oxygénée, avec des changements d'eau réguliers pour éliminer les déchets toxiques. La température de l'eau doit être maintenue dans une gamme appropriée, généralement entre 24 et 28°C, avec un pH légèrement acide à neutre. Compte tenu de leur régime carnivore, une alimentation variée et riche en protéines est essentielle pour les garder en bonne santé. Enfin, étant donné leur tendance à la territorialité, la prudence est de mise lors de l'introduction d'autres espèces dans l'aquarium, pour éviter les conflits ou que les plus petits poissons ne deviennent des proies. Une telle maintenance requiert une expérience et un engagement significatifs de la part de l'aquariophile.
 </t>
@@ -728,7 +754,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'élevage des Boulengerella en captivité représente un défi considérable, principalement dû à leur taille adulte importante, à leurs besoins spécifiques en matière d'habitat et à leur comportement territorial et prédateur. Pour réussir leur reproduction, il est nécessaire de disposer d'un aquarium spacieux qui permette non seulement la cohabitation harmonieuse de plusieurs individus mais aussi suffisamment d'espace pour le comportement de parade et de frai. La simulation des conditions environnementales naturelles, comme les variations saisonnières de température et les changements dans la photopériode, peut encourager les comportements de reproduction. La qualité de l'eau doit être impeccable, avec des paramètres stables et une filtration puissante pour gérer les déchets produits par ces grands poissons. Une alimentation diversifiée et riche, simulant leur régime carnivore naturel, est cruciale pour les maintenir en bonne condition physique et favoriser la reproduction. Malgré ces efforts, les succès d'élevage restent rares et sont souvent l'apanage des aquariophiles très expérimentés ou des professionnels, soulignant la complexité de reproduire ce type de poisson prédateur en captivité.
